--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_NhatQuang.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -226,6 +226,33 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>LE.1.00.---02.181025</t>
+  </si>
+  <si>
+    <t>112.078.011.007,16833</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.181005</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>LE.1.00.---05.190404</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thường xuyên mất sóng GSM</t>
   </si>
 </sst>
 </file>
@@ -625,6 +652,30 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -640,32 +691,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -976,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1009,41 +1036,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1088,58 +1115,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1164,23 +1191,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1190,7 +1217,9 @@
       <c r="B6" s="56">
         <v>44925</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="56">
+        <v>44926</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -1202,19 +1231,37 @@
         <v>64</v>
       </c>
       <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="62"/>
+      <c r="I6" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="62" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1229,7 +1276,9 @@
       <c r="B7" s="56">
         <v>44925</v>
       </c>
-      <c r="C7" s="56"/>
+      <c r="C7" s="56">
+        <v>44926</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -1241,19 +1290,37 @@
         <v>64</v>
       </c>
       <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
+      <c r="I7" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="61" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="62"/>
+      <c r="O7" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="62" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1266,7 +1333,9 @@
       <c r="B8" s="56">
         <v>44925</v>
       </c>
-      <c r="C8" s="56"/>
+      <c r="C8" s="56">
+        <v>44926</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -1278,19 +1347,37 @@
         <v>64</v>
       </c>
       <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
+      <c r="I8" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="61" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="62"/>
+      <c r="O8" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="62" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1303,7 +1390,9 @@
       <c r="B9" s="56">
         <v>44925</v>
       </c>
-      <c r="C9" s="56"/>
+      <c r="C9" s="56">
+        <v>44926</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
@@ -1315,19 +1404,35 @@
         <v>64</v>
       </c>
       <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="60"/>
+      <c r="I9" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>67</v>
+      </c>
       <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
+      <c r="M9" s="61" t="s">
+        <v>72</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="62"/>
+      <c r="O9" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="62" t="s">
+        <v>37</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1340,7 +1445,9 @@
       <c r="B10" s="56">
         <v>44925</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="56">
+        <v>44926</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>44</v>
       </c>
@@ -1352,19 +1459,37 @@
         <v>64</v>
       </c>
       <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
+      <c r="I10" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="61" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="62"/>
+      <c r="O10" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="62" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1393,7 +1518,7 @@
       <c r="R11" s="62"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1422,7 +1547,7 @@
       <c r="R12" s="62"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1453,7 +1578,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1482,7 +1607,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1511,7 +1636,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1540,7 +1665,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1658,7 +1783,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2063,7 +2188,7 @@
       </c>
       <c r="V33" s="9">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="13"/>
     </row>
@@ -2127,7 +2252,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2191,7 +2316,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2544,7 +2669,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -3317,41 +3442,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3396,58 +3521,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3472,23 +3597,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="74"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
       <c r="P5" s="80"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="73"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3514,7 +3639,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3545,7 +3670,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3574,7 +3699,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3603,7 +3728,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3632,7 +3757,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3661,7 +3786,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3690,7 +3815,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3721,7 +3846,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3750,7 +3875,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3779,7 +3904,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3808,7 +3933,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
